--- a/SENAI-Sprint.1-BD/1.4/Modelo-Fisico.xlsx
+++ b/SENAI-Sprint.1-BD/1.4/Modelo-Fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Python Scripts\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A3332-7DE6-4330-B72A-2D32F993DFED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E4328-7D75-472B-891A-571F4F91E663}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -112,13 +112,46 @@
   </si>
   <si>
     <t>Ativo</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Tipo de permissão</t>
+  </si>
+  <si>
+    <t>Flávia</t>
+  </si>
+  <si>
+    <t>Fabíola</t>
+  </si>
+  <si>
+    <t>flavia@email.com</t>
+  </si>
+  <si>
+    <t>fabiola@email.com</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Comum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +167,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +252,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,14 +331,30 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF6600"/>
@@ -286,9 +362,6 @@
       <color rgb="FF99FFCC"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF66CCFF"/>
-      <color rgb="FF33CCCC"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -601,16 +674,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DF433D-9134-4572-A378-27587AEFF2B9}">
   <dimension ref="A3:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -859,6 +933,13 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="M14" s="6">
         <v>3</v>
       </c>
@@ -867,6 +948,21 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M15" s="6">
         <v>4</v>
       </c>
@@ -875,6 +971,21 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="17">
+        <v>123</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="M16" s="6">
         <v>5</v>
       </c>
@@ -882,7 +993,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17">
+        <v>456</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="M17" s="6">
         <v>5</v>
       </c>
@@ -891,13 +1017,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{704D7F1B-0710-4A39-8A56-8BEDE2B05385}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{F05A061C-E271-4155-A5C7-CA03757C672E}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>